--- a/dataExcel/【加利尔 AR（StatTrak™） _ 冷石 (略有磨损)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【加利尔 AR（StatTrak™） _ 冷石 (略有磨损)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,219 +422,219 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 17:15:06</v>
+        <v>2023-09-17 18:43:35</v>
       </c>
       <c r="B8">
-        <v>43.99</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>58.13</v>
+        <v>58.27</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E8">
-        <v>39.29</v>
+        <v>41.6</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 20:58:43</v>
+        <v>2023-09-17 22:23:40</v>
       </c>
       <c r="B9">
-        <v>43.99</v>
+        <v>44.9</v>
       </c>
       <c r="C9">
-        <v>58.56</v>
+        <v>58.7</v>
       </c>
       <c r="D9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E9">
-        <v>39.4</v>
+        <v>41.5</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 00:35:47</v>
+        <v>2023-09-18 01:58:57</v>
       </c>
       <c r="B10">
-        <v>43.99</v>
+        <v>44.9</v>
       </c>
       <c r="C10">
-        <v>58.56</v>
+        <v>58.7</v>
       </c>
       <c r="D10">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E10">
-        <v>39.79</v>
+        <v>39.5</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 04:14:31</v>
+        <v>2023-09-18 05:36:02</v>
       </c>
       <c r="B11">
-        <v>43.99</v>
+        <v>44.9</v>
       </c>
       <c r="C11">
-        <v>58.93</v>
+        <v>58.19</v>
       </c>
       <c r="D11">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E11">
-        <v>40.29</v>
+        <v>41.1</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 07:49:59</v>
+        <v>2023-09-18 09:17:26</v>
       </c>
       <c r="B12">
-        <v>43.99</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>58.92</v>
       </c>
       <c r="D12">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>40.29</v>
+        <v>38.6</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 11:33:21</v>
+        <v>2023-09-18 12:52:07</v>
       </c>
       <c r="B13">
-        <v>43.99</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>58.92</v>
       </c>
       <c r="D13">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E13">
-        <v>40.29</v>
+        <v>41.6</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 15:07:44</v>
+        <v>2023-09-18 16:36:09</v>
       </c>
       <c r="B14">
-        <v>43.9</v>
+        <v>44.8</v>
       </c>
       <c r="C14">
         <v>58.92</v>
       </c>
       <c r="D14">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E14">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 18:43:35</v>
+        <v>2023-09-18 20:15:14</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>58.27</v>
+        <v>58.05</v>
       </c>
       <c r="D15">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E15">
-        <v>41.6</v>
+        <v>38.1</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 22:23:40</v>
+        <v>2023-09-18 20:23:02</v>
       </c>
       <c r="B16">
-        <v>44.9</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>58.7</v>
+        <v>58.05</v>
       </c>
       <c r="D16">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E16">
-        <v>41.5</v>
+        <v>38.2</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 01:58:57</v>
+        <v>2023-09-19 00:04:50</v>
       </c>
       <c r="B17">
-        <v>44.9</v>
+        <v>43.9</v>
       </c>
       <c r="C17">
-        <v>58.7</v>
+        <v>58.92</v>
       </c>
       <c r="D17">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E17">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 05:36:02</v>
+        <v>2023-09-19 03:40:00</v>
       </c>
       <c r="B18">
-        <v>44.9</v>
+        <v>43.9</v>
       </c>
       <c r="C18">
-        <v>58.19</v>
+        <v>59.07</v>
       </c>
       <c r="D18">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E18">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="F18">
         <v>13</v>
@@ -642,19 +642,19 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 09:17:26</v>
+        <v>2023-09-19 07:21:07</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="C19">
-        <v>58.92</v>
+        <v>56.44</v>
       </c>
       <c r="D19">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E19">
-        <v>38.6</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -662,279 +662,279 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 12:52:07</v>
+        <v>2023-09-19 11:04:12</v>
       </c>
       <c r="B20">
-        <v>45</v>
+        <v>44.49</v>
       </c>
       <c r="C20">
-        <v>58.92</v>
+        <v>58.7</v>
       </c>
       <c r="D20">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E20">
-        <v>41.6</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 16:36:09</v>
+        <v>2023-09-19 14:39:40</v>
       </c>
       <c r="B21">
-        <v>44.8</v>
+        <v>44.29</v>
       </c>
       <c r="C21">
-        <v>58.92</v>
+        <v>58.99</v>
       </c>
       <c r="D21">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E21">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 20:15:14</v>
+        <v>2023-09-19 18:16:54</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>44.39</v>
       </c>
       <c r="C22">
-        <v>58.05</v>
+        <v>58.99</v>
       </c>
       <c r="D22">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E22">
-        <v>38.1</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 20:23:02</v>
+        <v>2023-09-19 21:57:12</v>
       </c>
       <c r="B23">
         <v>44</v>
       </c>
       <c r="C23">
-        <v>58.05</v>
+        <v>59.14</v>
       </c>
       <c r="D23">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E23">
-        <v>38.2</v>
+        <v>41.2</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 00:04:50</v>
+        <v>2023-09-20 01:35:02</v>
       </c>
       <c r="B24">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="C24">
-        <v>58.92</v>
+        <v>59.51</v>
       </c>
       <c r="D24">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E24">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 03:40:00</v>
+        <v>2023-09-20 01:40:36</v>
       </c>
       <c r="B25">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="C25">
-        <v>59.07</v>
+        <v>59.51</v>
       </c>
       <c r="D25">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E25">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 07:21:07</v>
+        <v>2023-09-20 05:18:42</v>
       </c>
       <c r="B26">
         <v>43.9</v>
       </c>
       <c r="C26">
-        <v>56.44</v>
+        <v>59.55</v>
       </c>
       <c r="D26">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 11:04:12</v>
+        <v>2023-09-20 08:55:27</v>
       </c>
       <c r="B27">
-        <v>44.49</v>
+        <v>43.8</v>
       </c>
       <c r="C27">
-        <v>58.7</v>
+        <v>58.74</v>
       </c>
       <c r="D27">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E27">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 14:39:40</v>
+        <v>2023-09-20 12:31:06</v>
       </c>
       <c r="B28">
-        <v>44.29</v>
+        <v>42.5</v>
       </c>
       <c r="C28">
-        <v>58.99</v>
+        <v>54.73</v>
       </c>
       <c r="D28">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E28">
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 18:16:54</v>
+        <v>2023-09-20 16:07:50</v>
       </c>
       <c r="B29">
-        <v>44.39</v>
+        <v>43.9</v>
       </c>
       <c r="C29">
-        <v>58.99</v>
+        <v>59.62</v>
       </c>
       <c r="D29">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E29">
-        <v>41</v>
+        <v>39.5</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 21:57:12</v>
+        <v>2023-09-20 19:48:31</v>
       </c>
       <c r="B30">
         <v>44</v>
       </c>
       <c r="C30">
-        <v>59.14</v>
+        <v>59.62</v>
       </c>
       <c r="D30">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E30">
-        <v>41.2</v>
+        <v>40.7</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 01:35:02</v>
+        <v>2023-09-20 23:28:36</v>
       </c>
       <c r="B31">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="C31">
-        <v>59.51</v>
+        <v>59.62</v>
       </c>
       <c r="D31">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31">
-        <v>41.2</v>
+        <v>40.7</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 01:40:36</v>
+        <v>2023-09-21 03:08:41</v>
       </c>
       <c r="B32">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="C32">
-        <v>59.51</v>
+        <v>59.62</v>
       </c>
       <c r="D32">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32">
-        <v>41.2</v>
+        <v>40.7</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 05:18:42</v>
+        <v>2023-09-21 06:48:19</v>
       </c>
       <c r="B33">
         <v>43.9</v>
       </c>
       <c r="C33">
-        <v>59.55</v>
+        <v>58.95</v>
       </c>
       <c r="D33">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E33">
-        <v>41.2</v>
+        <v>40.79</v>
       </c>
       <c r="F33">
         <v>9</v>
@@ -942,19 +942,19 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 08:55:27</v>
+        <v>2023-09-21 10:28:38</v>
       </c>
       <c r="B34">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="C34">
-        <v>58.74</v>
+        <v>58.3</v>
       </c>
       <c r="D34">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34">
-        <v>41.2</v>
+        <v>40.79</v>
       </c>
       <c r="F34">
         <v>9</v>
@@ -962,19 +962,19 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 12:31:06</v>
+        <v>2023-09-21 14:06:24</v>
       </c>
       <c r="B35">
-        <v>42.5</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>54.73</v>
+        <v>57.57</v>
       </c>
       <c r="D35">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E35">
-        <v>41.2</v>
+        <v>40.79</v>
       </c>
       <c r="F35">
         <v>9</v>
@@ -982,319 +982,319 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-20 16:07:50</v>
+        <v>2023-09-21 14:11:23</v>
       </c>
       <c r="B36">
-        <v>43.9</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>59.62</v>
+        <v>57.57</v>
       </c>
       <c r="D36">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E36">
-        <v>39.5</v>
+        <v>40.79</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-20 19:48:31</v>
+        <v>2023-09-21 17:48:21</v>
       </c>
       <c r="B37">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="C37">
-        <v>59.62</v>
+        <v>57.57</v>
       </c>
       <c r="D37">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E37">
-        <v>40.7</v>
+        <v>40.29</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-20 23:28:36</v>
+        <v>2023-09-21 21:24:51</v>
       </c>
       <c r="B38">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="C38">
-        <v>59.62</v>
+        <v>57.57</v>
       </c>
       <c r="D38">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E38">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-21 03:08:41</v>
+        <v>2023-09-23 00:47:18</v>
       </c>
       <c r="B39">
-        <v>43.8</v>
+        <v>42.96</v>
       </c>
       <c r="C39">
-        <v>59.62</v>
+        <v>57.95</v>
       </c>
       <c r="D39">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E39">
-        <v>40.7</v>
+        <v>39.79</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-21 06:48:19</v>
+        <v>2023-09-23 04:43:20</v>
       </c>
       <c r="B40">
-        <v>43.9</v>
+        <v>42.96</v>
       </c>
       <c r="C40">
-        <v>58.95</v>
+        <v>58.39</v>
       </c>
       <c r="D40">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E40">
-        <v>40.79</v>
+        <v>39.79</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-21 10:28:38</v>
+        <v>2023-09-23 08:18:23</v>
       </c>
       <c r="B41">
-        <v>43.9</v>
+        <v>42.86</v>
       </c>
       <c r="C41">
-        <v>58.3</v>
+        <v>58.24</v>
       </c>
       <c r="D41">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E41">
-        <v>40.79</v>
+        <v>39.79</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 14:06:24</v>
+        <v>2023-09-23 12:16:49</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>42.74</v>
       </c>
       <c r="C42">
-        <v>57.57</v>
+        <v>56.56</v>
       </c>
       <c r="D42">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E42">
-        <v>40.79</v>
+        <v>39.7</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-21 14:11:23</v>
+        <v>2023-09-23 16:01:09</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>42.64</v>
       </c>
       <c r="C43">
-        <v>57.57</v>
+        <v>56.56</v>
       </c>
       <c r="D43">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E43">
-        <v>40.79</v>
+        <v>39.7</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 17:48:21</v>
+        <v>2023-09-23 19:46:46</v>
       </c>
       <c r="B44">
-        <v>43.9</v>
+        <v>42.43</v>
       </c>
       <c r="C44">
-        <v>57.57</v>
+        <v>56.56</v>
       </c>
       <c r="D44">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E44">
-        <v>40.29</v>
+        <v>38.9</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-21 21:24:51</v>
+        <v>2023-09-23 23:22:36</v>
       </c>
       <c r="B45">
-        <v>43.9</v>
+        <v>42.23</v>
       </c>
       <c r="C45">
-        <v>57.57</v>
+        <v>56.56</v>
       </c>
       <c r="D45">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E45">
-        <v>40.6</v>
+        <v>38.9</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-23 00:47:18</v>
+        <v>2023-09-24 03:04:56</v>
       </c>
       <c r="B46">
-        <v>42.96</v>
+        <v>42.12</v>
       </c>
       <c r="C46">
-        <v>57.95</v>
+        <v>55.98</v>
       </c>
       <c r="D46">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E46">
-        <v>39.79</v>
+        <v>38.9</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-23 04:43:20</v>
+        <v>2023-09-24 06:48:55</v>
       </c>
       <c r="B47">
-        <v>42.96</v>
+        <v>42.13</v>
       </c>
       <c r="C47">
-        <v>58.39</v>
+        <v>53.71</v>
       </c>
       <c r="D47">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E47">
-        <v>39.79</v>
+        <v>38.9</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-23 08:18:23</v>
+        <v>2023-09-24 10:30:40</v>
       </c>
       <c r="B48">
-        <v>42.86</v>
+        <v>42.13</v>
       </c>
       <c r="C48">
-        <v>58.24</v>
+        <v>58.23</v>
       </c>
       <c r="D48">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E48">
-        <v>39.79</v>
+        <v>39.2</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-23 12:16:49</v>
+        <v>2023-09-24 14:13:15</v>
       </c>
       <c r="B49">
-        <v>42.74</v>
+        <v>42</v>
       </c>
       <c r="C49">
-        <v>56.56</v>
+        <v>57.43</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E49">
-        <v>39.7</v>
+        <v>38.9</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-23 16:01:09</v>
+        <v>2023-09-24 17:49:36</v>
       </c>
       <c r="B50">
-        <v>42.64</v>
+        <v>41.79</v>
       </c>
       <c r="C50">
-        <v>56.56</v>
+        <v>59.54</v>
       </c>
       <c r="D50">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E50">
-        <v>39.7</v>
+        <v>37.29</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-23 19:46:46</v>
+        <v>2023-09-24 21:32:13</v>
       </c>
       <c r="B51">
-        <v>42.43</v>
+        <v>42</v>
       </c>
       <c r="C51">
-        <v>56.56</v>
+        <v>59.54</v>
       </c>
       <c r="D51">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51">
-        <v>38.9</v>
+        <v>38.29</v>
       </c>
       <c r="F51">
         <v>22</v>
@@ -1302,79 +1302,79 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-23 23:22:36</v>
+        <v>2023-09-25 01:03:33</v>
       </c>
       <c r="B52">
-        <v>42.23</v>
+        <v>41.9</v>
       </c>
       <c r="C52">
-        <v>56.56</v>
+        <v>59.54</v>
       </c>
       <c r="D52">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E52">
-        <v>38.9</v>
+        <v>38.79</v>
       </c>
       <c r="F52">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-24 03:04:56</v>
+        <v>2023-09-25 04:38:15</v>
       </c>
       <c r="B53">
-        <v>42.12</v>
+        <v>41.89</v>
       </c>
       <c r="C53">
-        <v>55.98</v>
+        <v>59.4</v>
       </c>
       <c r="D53">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E53">
-        <v>38.9</v>
+        <v>38.79</v>
       </c>
       <c r="F53">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-24 06:48:55</v>
+        <v>2023-09-25 08:23:33</v>
       </c>
       <c r="B54">
-        <v>42.13</v>
+        <v>41.89</v>
       </c>
       <c r="C54">
-        <v>53.71</v>
+        <v>59.4</v>
       </c>
       <c r="D54">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E54">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="F54">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-24 10:30:40</v>
+        <v>2023-09-25 11:56:11</v>
       </c>
       <c r="B55">
-        <v>42.13</v>
+        <v>41.8</v>
       </c>
       <c r="C55">
-        <v>58.23</v>
+        <v>59.91</v>
       </c>
       <c r="D55">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E55">
-        <v>39.2</v>
+        <v>38.9</v>
       </c>
       <c r="F55">
         <v>9</v>
@@ -1382,79 +1382,79 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-24 14:13:15</v>
+        <v>2023-09-25 15:40:24</v>
       </c>
       <c r="B56">
-        <v>42</v>
+        <v>41.79</v>
       </c>
       <c r="C56">
-        <v>57.43</v>
+        <v>59.91</v>
       </c>
       <c r="D56">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E56">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-24 17:49:36</v>
+        <v>2023-09-25 19:22:12</v>
       </c>
       <c r="B57">
-        <v>41.79</v>
+        <v>41.89</v>
       </c>
       <c r="C57">
-        <v>59.54</v>
+        <v>59.62</v>
       </c>
       <c r="D57">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E57">
-        <v>37.29</v>
+        <v>38.29</v>
       </c>
       <c r="F57">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-24 21:32:13</v>
+        <v>2023-09-25 23:02:54</v>
       </c>
       <c r="B58">
-        <v>42</v>
+        <v>41.89</v>
       </c>
       <c r="C58">
-        <v>59.54</v>
+        <v>57.87</v>
       </c>
       <c r="D58">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E58">
-        <v>38.29</v>
+        <v>38.79</v>
       </c>
       <c r="F58">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-25 01:03:33</v>
+        <v>2023-09-26 02:42:08</v>
       </c>
       <c r="B59">
-        <v>41.9</v>
+        <v>41.91</v>
       </c>
       <c r="C59">
         <v>59.54</v>
       </c>
       <c r="D59">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E59">
-        <v>38.79</v>
+        <v>39.2</v>
       </c>
       <c r="F59">
         <v>9</v>
@@ -1462,239 +1462,239 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-25 04:38:15</v>
+        <v>2023-09-26 06:21:16</v>
       </c>
       <c r="B60">
-        <v>41.89</v>
+        <v>42</v>
       </c>
       <c r="C60">
-        <v>59.4</v>
+        <v>54.18</v>
       </c>
       <c r="D60">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E60">
-        <v>38.79</v>
+        <v>38.5</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-25 08:23:33</v>
+        <v>2023-09-26 06:26:00</v>
       </c>
       <c r="B61">
-        <v>41.89</v>
+        <v>42</v>
       </c>
       <c r="C61">
-        <v>59.4</v>
+        <v>54.18</v>
       </c>
       <c r="D61">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E61">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-25 11:56:11</v>
+        <v>2023-09-26 10:09:38</v>
       </c>
       <c r="B62">
-        <v>41.8</v>
+        <v>42.05</v>
       </c>
       <c r="C62">
-        <v>59.91</v>
+        <v>59.67</v>
       </c>
       <c r="D62">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E62">
-        <v>38.9</v>
+        <v>38.5</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-25 15:40:24</v>
+        <v>2023-09-26 13:43:48</v>
       </c>
       <c r="B63">
-        <v>41.79</v>
+        <v>42.5</v>
       </c>
       <c r="C63">
-        <v>59.91</v>
+        <v>59.67</v>
       </c>
       <c r="D63">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E63">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-25 19:22:12</v>
+        <v>2023-09-26 17:21:50</v>
       </c>
       <c r="B64">
-        <v>41.89</v>
+        <v>42.39</v>
       </c>
       <c r="C64">
-        <v>59.62</v>
+        <v>59.96</v>
       </c>
       <c r="D64">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E64">
-        <v>38.29</v>
+        <v>39.2</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-25 23:02:54</v>
+        <v>2023-09-26 17:29:42</v>
       </c>
       <c r="B65">
-        <v>41.89</v>
+        <v>42.39</v>
       </c>
       <c r="C65">
-        <v>57.87</v>
+        <v>59.96</v>
       </c>
       <c r="D65">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E65">
-        <v>38.79</v>
+        <v>39.2</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-26 02:42:08</v>
+        <v>2023-09-26 21:10:38</v>
       </c>
       <c r="B66">
-        <v>41.91</v>
+        <v>42.39</v>
       </c>
       <c r="C66">
-        <v>59.54</v>
+        <v>58.13</v>
       </c>
       <c r="D66">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E66">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-26 06:21:16</v>
+        <v>2023-09-27 00:50:42</v>
       </c>
       <c r="B67">
-        <v>42</v>
+        <v>42.36</v>
       </c>
       <c r="C67">
         <v>54.18</v>
       </c>
       <c r="D67">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E67">
-        <v>38.5</v>
+        <v>39.29</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-26 06:26:00</v>
+        <v>2023-09-27 04:28:24</v>
       </c>
       <c r="B68">
-        <v>42</v>
+        <v>42.36</v>
       </c>
       <c r="C68">
-        <v>54.18</v>
+        <v>49.65</v>
       </c>
       <c r="D68">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E68">
-        <v>38.5</v>
+        <v>39.29</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-26 10:09:38</v>
+        <v>2023-09-27 08:10:20</v>
       </c>
       <c r="B69">
-        <v>42.05</v>
+        <v>42.36</v>
       </c>
       <c r="C69">
-        <v>59.67</v>
+        <v>53.01</v>
       </c>
       <c r="D69">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E69">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-26 13:43:48</v>
+        <v>2023-09-27 11:50:59</v>
       </c>
       <c r="B70">
-        <v>42.5</v>
+        <v>42.1</v>
       </c>
       <c r="C70">
-        <v>59.67</v>
+        <v>53.15</v>
       </c>
       <c r="D70">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E70">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-26 17:21:50</v>
+        <v>2023-09-27 15:25:24</v>
       </c>
       <c r="B71">
-        <v>42.39</v>
+        <v>41.97</v>
       </c>
       <c r="C71">
-        <v>59.96</v>
+        <v>52.94</v>
       </c>
       <c r="D71">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E71">
-        <v>39.2</v>
+        <v>38.7</v>
       </c>
       <c r="F71">
         <v>8</v>
@@ -1702,299 +1702,299 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-26 17:29:42</v>
+        <v>2023-09-27 19:04:20</v>
       </c>
       <c r="B72">
-        <v>42.39</v>
+        <v>41.91</v>
       </c>
       <c r="C72">
-        <v>59.96</v>
+        <v>53.15</v>
       </c>
       <c r="D72">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E72">
-        <v>39.2</v>
+        <v>37.29</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-26 21:10:38</v>
+        <v>2023-09-27 22:43:42</v>
       </c>
       <c r="B73">
-        <v>42.39</v>
+        <v>41.85</v>
       </c>
       <c r="C73">
-        <v>58.13</v>
+        <v>52.35</v>
       </c>
       <c r="D73">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E73">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-27 00:50:42</v>
+        <v>2023-09-28 02:24:18</v>
       </c>
       <c r="B74">
-        <v>42.36</v>
+        <v>41.72</v>
       </c>
       <c r="C74">
-        <v>54.18</v>
+        <v>52.35</v>
       </c>
       <c r="D74">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E74">
-        <v>39.29</v>
+        <v>38.6</v>
       </c>
       <c r="F74">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-27 04:28:24</v>
+        <v>2023-09-28 06:02:59</v>
       </c>
       <c r="B75">
-        <v>42.36</v>
+        <v>41.49</v>
       </c>
       <c r="C75">
-        <v>49.65</v>
+        <v>56.66</v>
       </c>
       <c r="D75">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E75">
-        <v>39.29</v>
+        <v>37.79</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-27 08:10:20</v>
+        <v>2023-09-28 06:08:49</v>
       </c>
       <c r="B76">
-        <v>42.36</v>
+        <v>41.49</v>
       </c>
       <c r="C76">
-        <v>53.01</v>
+        <v>56.66</v>
       </c>
       <c r="D76">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E76">
-        <v>38.7</v>
+        <v>37.79</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-27 11:50:59</v>
+        <v>2023-09-28 09:49:33</v>
       </c>
       <c r="B77">
-        <v>42.1</v>
+        <v>41.27</v>
       </c>
       <c r="C77">
-        <v>53.15</v>
+        <v>63.02</v>
       </c>
       <c r="D77">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E77">
-        <v>38.6</v>
+        <v>37.79</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-27 15:25:24</v>
+        <v>2023-09-28 13:27:59</v>
       </c>
       <c r="B78">
-        <v>41.97</v>
+        <v>40.9</v>
       </c>
       <c r="C78">
-        <v>52.94</v>
+        <v>58.85</v>
       </c>
       <c r="D78">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E78">
-        <v>38.7</v>
+        <v>38.1</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-27 19:04:20</v>
+        <v>2023-09-28 17:04:52</v>
       </c>
       <c r="B79">
-        <v>41.91</v>
+        <v>41.11</v>
       </c>
       <c r="C79">
-        <v>53.15</v>
+        <v>63.02</v>
       </c>
       <c r="D79">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E79">
-        <v>37.29</v>
+        <v>38.2</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-27 22:43:42</v>
+        <v>2023-09-28 20:41:20</v>
       </c>
       <c r="B80">
-        <v>41.85</v>
+        <v>40.88</v>
       </c>
       <c r="C80">
-        <v>52.35</v>
+        <v>53.22</v>
       </c>
       <c r="D80">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E80">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="F80">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-28 02:24:18</v>
+        <v>2023-09-29 00:21:03</v>
       </c>
       <c r="B81">
-        <v>41.72</v>
+        <v>39.89</v>
       </c>
       <c r="C81">
-        <v>52.35</v>
+        <v>53.29</v>
       </c>
       <c r="D81">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E81">
-        <v>38.6</v>
+        <v>37.1</v>
       </c>
       <c r="F81">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-28 06:02:59</v>
+        <v>2023-09-29 03:57:54</v>
       </c>
       <c r="B82">
-        <v>41.49</v>
+        <v>38.99</v>
       </c>
       <c r="C82">
-        <v>56.66</v>
+        <v>62.93</v>
       </c>
       <c r="D82">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E82">
-        <v>37.79</v>
+        <v>32.5</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-28 06:08:49</v>
+        <v>2023-09-29 07:40:08</v>
       </c>
       <c r="B83">
-        <v>41.49</v>
+        <v>38.9</v>
       </c>
       <c r="C83">
-        <v>56.66</v>
+        <v>59.21</v>
       </c>
       <c r="D83">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E83">
-        <v>37.79</v>
+        <v>35.6</v>
       </c>
       <c r="F83">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-28 09:49:33</v>
+        <v>2023-09-29 11:20:25</v>
       </c>
       <c r="B84">
-        <v>41.27</v>
+        <v>38.75</v>
       </c>
       <c r="C84">
-        <v>63.02</v>
+        <v>59.21</v>
       </c>
       <c r="D84">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E84">
-        <v>37.79</v>
+        <v>35.6</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-28 13:27:59</v>
+        <v>2023-09-29 15:01:57</v>
       </c>
       <c r="B85">
-        <v>40.9</v>
+        <v>38.58</v>
       </c>
       <c r="C85">
-        <v>58.85</v>
+        <v>62.93</v>
       </c>
       <c r="D85">
         <v>147</v>
       </c>
       <c r="E85">
-        <v>38.1</v>
+        <v>32.2</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-28 17:04:52</v>
+        <v>2023-09-29 18:39:55</v>
       </c>
       <c r="B86">
-        <v>41.11</v>
+        <v>38</v>
       </c>
       <c r="C86">
-        <v>63.02</v>
+        <v>62.93</v>
       </c>
       <c r="D86">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E86">
-        <v>38.2</v>
+        <v>33.7</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -2002,59 +2002,59 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-28 20:41:20</v>
+        <v>2023-09-29 22:20:48</v>
       </c>
       <c r="B87">
-        <v>40.88</v>
+        <v>38.42</v>
       </c>
       <c r="C87">
-        <v>53.22</v>
+        <v>63.15</v>
       </c>
       <c r="D87">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E87">
-        <v>38.2</v>
+        <v>31.7</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-29 00:21:03</v>
+        <v>2023-09-30 02:02:50</v>
       </c>
       <c r="B88">
-        <v>39.89</v>
+        <v>38.58</v>
       </c>
       <c r="C88">
-        <v>53.29</v>
+        <v>63.08</v>
       </c>
       <c r="D88">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E88">
-        <v>37.1</v>
+        <v>34.4</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-29 03:57:54</v>
+        <v>2023-09-30 05:38:03</v>
       </c>
       <c r="B89">
-        <v>38.99</v>
+        <v>38.58</v>
       </c>
       <c r="C89">
-        <v>62.93</v>
+        <v>63.11</v>
       </c>
       <c r="D89">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E89">
-        <v>32.5</v>
+        <v>34.4</v>
       </c>
       <c r="F89">
         <v>15</v>
@@ -2062,1119 +2062,1119 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-29 07:40:08</v>
+        <v>2023-09-30 09:16:06</v>
       </c>
       <c r="B90">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="C90">
-        <v>59.21</v>
+        <v>58.44</v>
       </c>
       <c r="D90">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E90">
-        <v>35.6</v>
+        <v>34.5</v>
       </c>
       <c r="F90">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-29 11:20:25</v>
+        <v>2023-09-30 12:57:17</v>
       </c>
       <c r="B91">
-        <v>38.75</v>
+        <v>40</v>
       </c>
       <c r="C91">
-        <v>59.21</v>
+        <v>63.4</v>
       </c>
       <c r="D91">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E91">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-29 15:01:57</v>
+        <v>2023-09-30 16:36:54</v>
       </c>
       <c r="B92">
-        <v>38.58</v>
+        <v>40.86</v>
       </c>
       <c r="C92">
-        <v>62.93</v>
+        <v>63.4</v>
       </c>
       <c r="D92">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E92">
-        <v>32.2</v>
+        <v>38</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-29 18:39:55</v>
+        <v>2023-09-30 20:16:39</v>
       </c>
       <c r="B93">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C93">
-        <v>62.93</v>
+        <v>63.54</v>
       </c>
       <c r="D93">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E93">
-        <v>33.7</v>
+        <v>36</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 22:20:48</v>
+        <v>2023-09-30 20:23:52</v>
       </c>
       <c r="B94">
-        <v>38.42</v>
+        <v>40</v>
       </c>
       <c r="C94">
-        <v>63.15</v>
+        <v>70.98</v>
       </c>
       <c r="D94">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E94">
-        <v>31.7</v>
+        <v>36</v>
       </c>
       <c r="F94">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-30 02:02:50</v>
+        <v>2023-10-01 00:06:02</v>
       </c>
       <c r="B95">
-        <v>38.58</v>
+        <v>40.18</v>
       </c>
       <c r="C95">
-        <v>63.08</v>
+        <v>70.91</v>
       </c>
       <c r="D95">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E95">
-        <v>34.4</v>
+        <v>38</v>
       </c>
       <c r="F95">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-30 05:38:03</v>
+        <v>2023-10-01 03:43:01</v>
       </c>
       <c r="B96">
-        <v>38.58</v>
+        <v>40.18</v>
       </c>
       <c r="C96">
-        <v>63.11</v>
+        <v>70.98</v>
       </c>
       <c r="D96">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E96">
-        <v>34.4</v>
+        <v>38</v>
       </c>
       <c r="F96">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-30 09:16:06</v>
+        <v>2023-10-01 07:19:10</v>
       </c>
       <c r="B97">
-        <v>40</v>
+        <v>40.18</v>
       </c>
       <c r="C97">
-        <v>58.44</v>
+        <v>70.91</v>
       </c>
       <c r="D97">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E97">
-        <v>34.5</v>
+        <v>38.1</v>
       </c>
       <c r="F97">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-30 12:57:17</v>
+        <v>2023-10-01 10:55:13</v>
       </c>
       <c r="B98">
-        <v>40</v>
+        <v>40.07</v>
       </c>
       <c r="C98">
-        <v>63.4</v>
+        <v>70.91</v>
       </c>
       <c r="D98">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E98">
-        <v>35</v>
+        <v>38.1</v>
       </c>
       <c r="F98">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-30 16:36:54</v>
+        <v>2023-10-01 14:34:01</v>
       </c>
       <c r="B99">
-        <v>40.86</v>
+        <v>39.86</v>
       </c>
       <c r="C99">
-        <v>63.4</v>
+        <v>70.91</v>
       </c>
       <c r="D99">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E99">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-30 20:16:39</v>
+        <v>2023-10-01 18:12:42</v>
       </c>
       <c r="B100">
-        <v>40</v>
+        <v>41.9</v>
       </c>
       <c r="C100">
-        <v>63.54</v>
+        <v>70.98</v>
       </c>
       <c r="D100">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E100">
-        <v>36</v>
+        <v>38.1</v>
       </c>
       <c r="F100">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-30 20:23:52</v>
+        <v>2023-10-01 21:54:58</v>
       </c>
       <c r="B101">
-        <v>40</v>
+        <v>43.99</v>
       </c>
       <c r="C101">
-        <v>70.98</v>
+        <v>77.25</v>
       </c>
       <c r="D101">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E101">
-        <v>36</v>
+        <v>38.29</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-01 00:06:02</v>
+        <v>2023-10-02 01:37:24</v>
       </c>
       <c r="B102">
-        <v>40.18</v>
+        <v>43.8</v>
       </c>
       <c r="C102">
-        <v>70.91</v>
+        <v>75.14</v>
       </c>
       <c r="D102">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E102">
-        <v>38</v>
+        <v>38.29</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-01 03:43:01</v>
+        <v>2023-10-02 01:45:55</v>
       </c>
       <c r="B103">
-        <v>40.18</v>
+        <v>43.8</v>
       </c>
       <c r="C103">
-        <v>70.98</v>
+        <v>75.14</v>
       </c>
       <c r="D103">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E103">
-        <v>38</v>
+        <v>38.29</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-01 07:19:10</v>
+        <v>2023-10-02 05:23:19</v>
       </c>
       <c r="B104">
-        <v>40.18</v>
+        <v>43.8</v>
       </c>
       <c r="C104">
-        <v>70.91</v>
+        <v>73.95</v>
       </c>
       <c r="D104">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E104">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="F104">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-01 10:55:13</v>
+        <v>2023-10-02 08:59:57</v>
       </c>
       <c r="B105">
-        <v>40.07</v>
+        <v>43.8</v>
       </c>
       <c r="C105">
-        <v>70.91</v>
+        <v>74.25</v>
       </c>
       <c r="D105">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E105">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="F105">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-01 14:34:01</v>
+        <v>2023-10-02 12:36:23</v>
       </c>
       <c r="B106">
-        <v>39.86</v>
+        <v>43.85</v>
       </c>
       <c r="C106">
-        <v>70.91</v>
+        <v>73.38</v>
       </c>
       <c r="D106">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E106">
-        <v>38.1</v>
+        <v>38.7</v>
       </c>
       <c r="F106">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-01 18:12:42</v>
+        <v>2023-10-02 16:13:42</v>
       </c>
       <c r="B107">
-        <v>41.9</v>
+        <v>43.89</v>
       </c>
       <c r="C107">
-        <v>70.98</v>
+        <v>69.58</v>
       </c>
       <c r="D107">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E107">
-        <v>38.1</v>
+        <v>38.9</v>
       </c>
       <c r="F107">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-01 21:54:58</v>
+        <v>2023-10-02 19:51:38</v>
       </c>
       <c r="B108">
-        <v>43.99</v>
+        <v>43.48</v>
       </c>
       <c r="C108">
-        <v>77.25</v>
+        <v>65.42</v>
       </c>
       <c r="D108">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E108">
-        <v>38.29</v>
+        <v>39.4</v>
       </c>
       <c r="F108">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-02 01:37:24</v>
+        <v>2023-10-02 23:28:36</v>
       </c>
       <c r="B109">
-        <v>43.8</v>
+        <v>43.47</v>
       </c>
       <c r="C109">
-        <v>75.14</v>
+        <v>68.08</v>
       </c>
       <c r="D109">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E109">
-        <v>38.29</v>
+        <v>39.5</v>
       </c>
       <c r="F109">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-02 01:45:55</v>
+        <v>2023-10-03 03:06:18</v>
       </c>
       <c r="B110">
-        <v>43.8</v>
+        <v>43.47</v>
       </c>
       <c r="C110">
-        <v>75.14</v>
+        <v>64.78</v>
       </c>
       <c r="D110">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E110">
-        <v>38.29</v>
+        <v>39.2</v>
       </c>
       <c r="F110">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-02 05:23:19</v>
+        <v>2023-10-03 06:47:16</v>
       </c>
       <c r="B111">
-        <v>43.8</v>
+        <v>43.37</v>
       </c>
       <c r="C111">
-        <v>73.95</v>
+        <v>68.02</v>
       </c>
       <c r="D111">
         <v>132</v>
       </c>
       <c r="E111">
-        <v>38.5</v>
+        <v>39.29</v>
       </c>
       <c r="F111">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-02 08:59:57</v>
+        <v>2023-10-03 10:26:02</v>
       </c>
       <c r="B112">
-        <v>43.8</v>
+        <v>43.47</v>
       </c>
       <c r="C112">
-        <v>74.25</v>
+        <v>74.92</v>
       </c>
       <c r="D112">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E112">
-        <v>38.5</v>
+        <v>39.4</v>
       </c>
       <c r="F112">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-02 12:36:23</v>
+        <v>2023-10-03 14:07:03</v>
       </c>
       <c r="B113">
-        <v>43.85</v>
+        <v>43.47</v>
       </c>
       <c r="C113">
-        <v>73.38</v>
+        <v>75.56</v>
       </c>
       <c r="D113">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E113">
-        <v>38.7</v>
+        <v>39.4</v>
       </c>
       <c r="F113">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-02 16:13:42</v>
+        <v>2023-10-03 17:44:47</v>
       </c>
       <c r="B114">
-        <v>43.89</v>
+        <v>43.43</v>
       </c>
       <c r="C114">
-        <v>69.58</v>
+        <v>81.53</v>
       </c>
       <c r="D114">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E114">
-        <v>38.9</v>
+        <v>39.5</v>
       </c>
       <c r="F114">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-02 19:51:38</v>
+        <v>2023-10-03 21:21:31</v>
       </c>
       <c r="B115">
-        <v>43.48</v>
+        <v>43.47</v>
       </c>
       <c r="C115">
-        <v>65.42</v>
+        <v>75.34</v>
       </c>
       <c r="D115">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E115">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="F115">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-02 23:28:36</v>
+        <v>2023-10-04 00:57:43</v>
       </c>
       <c r="B116">
-        <v>43.47</v>
+        <v>43.87</v>
       </c>
       <c r="C116">
-        <v>68.08</v>
+        <v>71.68</v>
       </c>
       <c r="D116">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E116">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="F116">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-03 03:06:18</v>
+        <v>2023-10-04 04:35:55</v>
       </c>
       <c r="B117">
-        <v>43.47</v>
+        <v>43.87</v>
       </c>
       <c r="C117">
-        <v>64.78</v>
+        <v>71.18</v>
       </c>
       <c r="D117">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E117">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="F117">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-03 06:47:16</v>
+        <v>2023-10-04 08:14:41</v>
       </c>
       <c r="B118">
-        <v>43.37</v>
+        <v>43.87</v>
       </c>
       <c r="C118">
-        <v>68.02</v>
+        <v>71.4</v>
       </c>
       <c r="D118">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E118">
-        <v>39.29</v>
+        <v>40</v>
       </c>
       <c r="F118">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-03 10:26:02</v>
+        <v>2023-10-04 11:56:17</v>
       </c>
       <c r="B119">
-        <v>43.47</v>
+        <v>47.34</v>
       </c>
       <c r="C119">
-        <v>74.92</v>
+        <v>71.4</v>
       </c>
       <c r="D119">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E119">
-        <v>39.4</v>
+        <v>40.29</v>
       </c>
       <c r="F119">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-03 14:07:03</v>
+        <v>2023-10-04 15:36:25</v>
       </c>
       <c r="B120">
-        <v>43.47</v>
+        <v>48.88</v>
       </c>
       <c r="C120">
-        <v>75.56</v>
+        <v>67.94</v>
       </c>
       <c r="D120">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E120">
-        <v>39.4</v>
+        <v>41.2</v>
       </c>
       <c r="F120">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-03 17:44:47</v>
+        <v>2023-10-04 19:16:43</v>
       </c>
       <c r="B121">
-        <v>43.43</v>
+        <v>48.88</v>
       </c>
       <c r="C121">
-        <v>81.53</v>
+        <v>67.87</v>
       </c>
       <c r="D121">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E121">
-        <v>39.5</v>
+        <v>42.9</v>
       </c>
       <c r="F121">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-03 21:21:31</v>
+        <v>2023-10-04 22:54:08</v>
       </c>
       <c r="B122">
-        <v>43.47</v>
+        <v>48</v>
       </c>
       <c r="C122">
-        <v>75.34</v>
+        <v>67.01</v>
       </c>
       <c r="D122">
         <v>126</v>
       </c>
       <c r="E122">
-        <v>39.5</v>
+        <v>43.2</v>
       </c>
       <c r="F122">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-04 00:57:43</v>
+        <v>2023-10-05 02:34:55</v>
       </c>
       <c r="B123">
-        <v>43.87</v>
+        <v>47.9</v>
       </c>
       <c r="C123">
-        <v>71.68</v>
+        <v>67.94</v>
       </c>
       <c r="D123">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E123">
-        <v>39.6</v>
+        <v>42.5</v>
       </c>
       <c r="F123">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-04 04:35:55</v>
+        <v>2023-10-05 06:14:33</v>
       </c>
       <c r="B124">
-        <v>43.87</v>
+        <v>47.8</v>
       </c>
       <c r="C124">
-        <v>71.18</v>
+        <v>70.54</v>
       </c>
       <c r="D124">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E124">
-        <v>39.9</v>
+        <v>42.4</v>
       </c>
       <c r="F124">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-04 08:14:41</v>
+        <v>2023-10-05 09:53:40</v>
       </c>
       <c r="B125">
-        <v>43.87</v>
+        <v>47.9</v>
       </c>
       <c r="C125">
-        <v>71.4</v>
+        <v>66.3</v>
       </c>
       <c r="D125">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E125">
-        <v>40</v>
+        <v>42.6</v>
       </c>
       <c r="F125">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-04 11:56:17</v>
+        <v>2023-10-05 13:28:23</v>
       </c>
       <c r="B126">
-        <v>47.34</v>
+        <v>47.8</v>
       </c>
       <c r="C126">
-        <v>71.4</v>
+        <v>69.03</v>
       </c>
       <c r="D126">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E126">
-        <v>40.29</v>
+        <v>42.4</v>
       </c>
       <c r="F126">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-04 15:36:25</v>
+        <v>2023-10-05 17:06:44</v>
       </c>
       <c r="B127">
-        <v>48.88</v>
+        <v>46.98</v>
       </c>
       <c r="C127">
-        <v>67.94</v>
+        <v>70.18</v>
       </c>
       <c r="D127">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E127">
-        <v>41.2</v>
+        <v>42.4</v>
       </c>
       <c r="F127">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-04 19:16:43</v>
+        <v>2023-10-05 20:46:33</v>
       </c>
       <c r="B128">
-        <v>48.88</v>
+        <v>47.9</v>
       </c>
       <c r="C128">
-        <v>67.87</v>
+        <v>68.81</v>
       </c>
       <c r="D128">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E128">
-        <v>42.9</v>
+        <v>42.2</v>
       </c>
       <c r="F128">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-04 22:54:08</v>
+        <v>2023-10-06 00:26:01</v>
       </c>
       <c r="B129">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C129">
-        <v>67.01</v>
+        <v>70.18</v>
       </c>
       <c r="D129">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E129">
-        <v>43.2</v>
+        <v>42.3</v>
       </c>
       <c r="F129">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-05 02:34:55</v>
+        <v>2023-10-06 04:07:33</v>
       </c>
       <c r="B130">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="C130">
-        <v>67.94</v>
+        <v>68.76</v>
       </c>
       <c r="D130">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130">
-        <v>42.5</v>
+        <v>42.2</v>
       </c>
       <c r="F130">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-05 06:14:33</v>
+        <v>2023-10-06 07:45:54</v>
       </c>
       <c r="B131">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="C131">
-        <v>70.54</v>
+        <v>68.91</v>
       </c>
       <c r="D131">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E131">
         <v>42.4</v>
       </c>
       <c r="F131">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-05 09:53:40</v>
+        <v>2023-10-06 11:23:48</v>
       </c>
       <c r="B132">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="C132">
-        <v>66.3</v>
+        <v>70.78</v>
       </c>
       <c r="D132">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E132">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="F132">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-05 13:28:23</v>
+        <v>2023-10-06 14:58:48</v>
       </c>
       <c r="B133">
-        <v>47.8</v>
+        <v>47.5</v>
       </c>
       <c r="C133">
-        <v>69.03</v>
+        <v>67.68</v>
       </c>
       <c r="D133">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E133">
         <v>42.4</v>
       </c>
       <c r="F133">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-05 17:06:44</v>
+        <v>2023-10-06 18:36:13</v>
       </c>
       <c r="B134">
-        <v>46.98</v>
+        <v>44.9</v>
       </c>
       <c r="C134">
-        <v>70.18</v>
+        <v>65.02</v>
       </c>
       <c r="D134">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E134">
-        <v>42.4</v>
+        <v>40.4</v>
       </c>
       <c r="F134">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-05 20:46:33</v>
+        <v>2023-10-06 22:15:16</v>
       </c>
       <c r="B135">
-        <v>47.9</v>
+        <v>44.89</v>
       </c>
       <c r="C135">
-        <v>68.81</v>
+        <v>65.02</v>
       </c>
       <c r="D135">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E135">
-        <v>42.2</v>
+        <v>40.9</v>
       </c>
       <c r="F135">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-06 00:26:01</v>
+        <v>2023-10-07 01:56:35</v>
       </c>
       <c r="B136">
-        <v>44</v>
+        <v>44.89</v>
       </c>
       <c r="C136">
-        <v>70.18</v>
+        <v>67.9</v>
       </c>
       <c r="D136">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E136">
-        <v>42.3</v>
+        <v>41</v>
       </c>
       <c r="F136">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-06 04:07:33</v>
+        <v>2023-10-07 05:38:06</v>
       </c>
       <c r="B137">
-        <v>47.8</v>
+        <v>44.8</v>
       </c>
       <c r="C137">
-        <v>68.76</v>
+        <v>71.52</v>
       </c>
       <c r="D137">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E137">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="F137">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-06 07:45:54</v>
+        <v>2023-10-07 09:17:50</v>
       </c>
       <c r="B138">
-        <v>47.7</v>
+        <v>44.89</v>
       </c>
       <c r="C138">
-        <v>68.91</v>
+        <v>74.62</v>
       </c>
       <c r="D138">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E138">
-        <v>42.4</v>
+        <v>41</v>
       </c>
       <c r="F138">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-06 11:23:48</v>
+        <v>2023-10-07 12:54:23</v>
       </c>
       <c r="B139">
-        <v>47.6</v>
+        <v>44.88</v>
       </c>
       <c r="C139">
-        <v>70.78</v>
+        <v>72.09</v>
       </c>
       <c r="D139">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E139">
-        <v>42.4</v>
+        <v>41</v>
       </c>
       <c r="F139">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-06 14:58:48</v>
+        <v>2023-10-07 16:32:36</v>
       </c>
       <c r="B140">
-        <v>47.5</v>
+        <v>44.78</v>
       </c>
       <c r="C140">
-        <v>67.68</v>
+        <v>72.09</v>
       </c>
       <c r="D140">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E140">
-        <v>42.4</v>
+        <v>41</v>
       </c>
       <c r="F140">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-06 18:36:13</v>
+        <v>2023-10-07 20:08:45</v>
       </c>
       <c r="B141">
-        <v>44.9</v>
+        <v>44.3</v>
       </c>
       <c r="C141">
-        <v>65.02</v>
+        <v>72.59</v>
       </c>
       <c r="D141">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E141">
-        <v>40.4</v>
+        <v>42</v>
       </c>
       <c r="F141">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-06 22:15:16</v>
+        <v>2023-10-07 23:44:45</v>
       </c>
       <c r="B142">
-        <v>44.89</v>
+        <v>44.78</v>
       </c>
       <c r="C142">
-        <v>65.02</v>
+        <v>72.81</v>
       </c>
       <c r="D142">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E142">
-        <v>40.9</v>
+        <v>42</v>
       </c>
       <c r="F142">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-07 01:56:35</v>
+        <v>2023-10-08 03:24:00</v>
       </c>
       <c r="B143">
-        <v>44.89</v>
+        <v>44.78</v>
       </c>
       <c r="C143">
-        <v>67.9</v>
+        <v>73.31</v>
       </c>
       <c r="D143">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E143">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="F143">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-07 05:38:06</v>
+        <v>2023-10-08 07:03:31</v>
       </c>
       <c r="B144">
-        <v>44.8</v>
+        <v>44.68</v>
       </c>
       <c r="C144">
-        <v>71.52</v>
+        <v>74.47</v>
       </c>
       <c r="D144">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E144">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="F144">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-07 09:17:50</v>
+        <v>2023-10-08 10:40:28</v>
       </c>
       <c r="B145">
-        <v>44.89</v>
+        <v>44.67</v>
       </c>
       <c r="C145">
-        <v>74.62</v>
+        <v>82.31</v>
       </c>
       <c r="D145">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E145">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="F145">
         <v>11</v>
@@ -3182,239 +3182,239 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-07 12:54:23</v>
+        <v>2023-10-08 14:20:49</v>
       </c>
       <c r="B146">
-        <v>44.88</v>
+        <v>43.99</v>
       </c>
       <c r="C146">
-        <v>72.09</v>
+        <v>71.95</v>
       </c>
       <c r="D146">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E146">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="F146">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-07 16:32:36</v>
+        <v>2023-10-08 18:01:51</v>
       </c>
       <c r="B147">
-        <v>44.78</v>
+        <v>43.98</v>
       </c>
       <c r="C147">
-        <v>72.09</v>
+        <v>71.8</v>
       </c>
       <c r="D147">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E147">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F147">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-07 20:08:45</v>
+        <v>2023-10-08 18:07:56</v>
       </c>
       <c r="B148">
-        <v>44.3</v>
+        <v>43.98</v>
       </c>
       <c r="C148">
-        <v>72.59</v>
+        <v>71.8</v>
       </c>
       <c r="D148">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E148">
-        <v>42</v>
+        <v>40.4</v>
       </c>
       <c r="F148">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-07 23:44:45</v>
+        <v>2023-10-08 21:46:28</v>
       </c>
       <c r="B149">
-        <v>44.78</v>
+        <v>44.65</v>
       </c>
       <c r="C149">
-        <v>72.81</v>
+        <v>70.58</v>
       </c>
       <c r="D149">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E149">
-        <v>42</v>
+        <v>40.9</v>
       </c>
       <c r="F149">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-08 03:24:00</v>
+        <v>2023-10-09 01:23:26</v>
       </c>
       <c r="B150">
-        <v>44.78</v>
+        <v>47</v>
       </c>
       <c r="C150">
-        <v>73.31</v>
+        <v>65.4</v>
       </c>
       <c r="D150">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E150">
-        <v>40.2</v>
+        <v>41.7</v>
       </c>
       <c r="F150">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-08 07:03:31</v>
+        <v>2023-10-09 04:58:28</v>
       </c>
       <c r="B151">
-        <v>44.68</v>
+        <v>47</v>
       </c>
       <c r="C151">
-        <v>74.47</v>
+        <v>82.02</v>
       </c>
       <c r="D151">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E151">
-        <v>40.1</v>
+        <v>41.1</v>
       </c>
       <c r="F151">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-08 10:40:28</v>
+        <v>2023-10-09 08:38:47</v>
       </c>
       <c r="B152">
-        <v>44.67</v>
+        <v>47</v>
       </c>
       <c r="C152">
-        <v>82.31</v>
+        <v>83.24</v>
       </c>
       <c r="D152">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E152">
-        <v>40.1</v>
+        <v>41.5</v>
       </c>
       <c r="F152">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-08 14:20:49</v>
+        <v>2023-10-09 12:16:49</v>
       </c>
       <c r="B153">
-        <v>43.99</v>
+        <v>47</v>
       </c>
       <c r="C153">
-        <v>71.95</v>
+        <v>83.24</v>
       </c>
       <c r="D153">
         <v>129</v>
       </c>
       <c r="E153">
-        <v>40.2</v>
+        <v>42.3</v>
       </c>
       <c r="F153">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-08 18:01:51</v>
+        <v>2023-10-09 15:58:19</v>
       </c>
       <c r="B154">
-        <v>43.98</v>
+        <v>47.8</v>
       </c>
       <c r="C154">
         <v>71.8</v>
       </c>
       <c r="D154">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E154">
-        <v>40.4</v>
+        <v>41.6</v>
       </c>
       <c r="F154">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-08 18:07:56</v>
+        <v>2023-10-09 19:38:23</v>
       </c>
       <c r="B155">
-        <v>43.98</v>
+        <v>47.8</v>
       </c>
       <c r="C155">
-        <v>71.8</v>
+        <v>86.05</v>
       </c>
       <c r="D155">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E155">
-        <v>40.4</v>
+        <v>42.9</v>
       </c>
       <c r="F155">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-08 21:46:28</v>
+        <v>2023-10-09 23:18:04</v>
       </c>
       <c r="B156">
-        <v>44.65</v>
+        <v>48</v>
       </c>
       <c r="C156">
-        <v>70.58</v>
+        <v>76.91</v>
       </c>
       <c r="D156">
         <v>127</v>
       </c>
       <c r="E156">
-        <v>40.9</v>
+        <v>43.6</v>
       </c>
       <c r="F156">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-09 01:23:26</v>
+        <v>2023-10-10 02:56:44</v>
       </c>
       <c r="B157">
-        <v>47</v>
+        <v>47.9</v>
       </c>
       <c r="C157">
-        <v>65.4</v>
+        <v>78.06</v>
       </c>
       <c r="D157">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E157">
-        <v>41.7</v>
+        <v>43.7</v>
       </c>
       <c r="F157">
         <v>15</v>
@@ -3422,439 +3422,439 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-09 04:58:28</v>
+        <v>2023-10-10 06:33:46</v>
       </c>
       <c r="B158">
-        <v>47</v>
+        <v>47.9</v>
       </c>
       <c r="C158">
-        <v>82.02</v>
+        <v>82.25</v>
       </c>
       <c r="D158">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E158">
-        <v>41.1</v>
+        <v>43.9</v>
       </c>
       <c r="F158">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-09 08:38:47</v>
+        <v>2023-10-10 10:12:39</v>
       </c>
       <c r="B159">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C159">
-        <v>83.24</v>
+        <v>82.76</v>
       </c>
       <c r="D159">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E159">
-        <v>41.5</v>
+        <v>43.9</v>
       </c>
       <c r="F159">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-09 12:16:49</v>
+        <v>2023-10-10 13:48:35</v>
       </c>
       <c r="B160">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C160">
-        <v>83.24</v>
+        <v>82.76</v>
       </c>
       <c r="D160">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E160">
-        <v>42.3</v>
+        <v>44</v>
       </c>
       <c r="F160">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-09 15:58:19</v>
+        <v>2023-10-10 17:30:16</v>
       </c>
       <c r="B161">
-        <v>47.8</v>
+        <v>48.35</v>
       </c>
       <c r="C161">
-        <v>71.8</v>
+        <v>72.92</v>
       </c>
       <c r="D161">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E161">
-        <v>41.6</v>
+        <v>44.6</v>
       </c>
       <c r="F161">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-09 19:38:23</v>
+        <v>2023-10-10 21:11:36</v>
       </c>
       <c r="B162">
-        <v>47.8</v>
+        <v>48.78</v>
       </c>
       <c r="C162">
-        <v>86.05</v>
+        <v>84.29</v>
       </c>
       <c r="D162">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E162">
-        <v>42.9</v>
+        <v>44.9</v>
       </c>
       <c r="F162">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-09 23:18:04</v>
+        <v>2023-10-11 00:51:31</v>
       </c>
       <c r="B163">
-        <v>48</v>
+        <v>48.89</v>
       </c>
       <c r="C163">
-        <v>76.91</v>
+        <v>83.42</v>
       </c>
       <c r="D163">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E163">
-        <v>43.6</v>
+        <v>44.7</v>
       </c>
       <c r="F163">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-10 02:56:44</v>
+        <v>2023-10-11 04:29:48</v>
       </c>
       <c r="B164">
-        <v>47.9</v>
+        <v>48.99</v>
       </c>
       <c r="C164">
-        <v>78.06</v>
+        <v>84.26</v>
       </c>
       <c r="D164">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E164">
-        <v>43.7</v>
+        <v>44.9</v>
       </c>
       <c r="F164">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-10 06:33:46</v>
+        <v>2023-10-11 08:09:51</v>
       </c>
       <c r="B165">
-        <v>47.9</v>
+        <v>49.99</v>
       </c>
       <c r="C165">
-        <v>82.25</v>
+        <v>73.98</v>
       </c>
       <c r="D165">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E165">
-        <v>43.9</v>
+        <v>45.1</v>
       </c>
       <c r="F165">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-10 10:12:39</v>
+        <v>2023-10-11 11:49:12</v>
       </c>
       <c r="B166">
-        <v>48</v>
+        <v>49.99</v>
       </c>
       <c r="C166">
-        <v>82.76</v>
+        <v>84.41</v>
       </c>
       <c r="D166">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E166">
-        <v>43.9</v>
+        <v>45.7</v>
       </c>
       <c r="F166">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-10 13:48:35</v>
+        <v>2023-10-11 15:26:56</v>
       </c>
       <c r="B167">
-        <v>48</v>
+        <v>49.8</v>
       </c>
       <c r="C167">
-        <v>82.76</v>
+        <v>82.29</v>
       </c>
       <c r="D167">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E167">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F167">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-10 17:30:16</v>
+        <v>2023-10-11 19:03:19</v>
       </c>
       <c r="B168">
-        <v>48.35</v>
+        <v>46</v>
       </c>
       <c r="C168">
-        <v>72.92</v>
+        <v>82.29</v>
       </c>
       <c r="D168">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E168">
-        <v>44.6</v>
+        <v>45.6</v>
       </c>
       <c r="F168">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-10 21:11:36</v>
+        <v>2023-10-11 22:42:26</v>
       </c>
       <c r="B169">
-        <v>48.78</v>
+        <v>49.2</v>
       </c>
       <c r="C169">
-        <v>84.29</v>
+        <v>74.84</v>
       </c>
       <c r="D169">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E169">
-        <v>44.9</v>
+        <v>41.6</v>
       </c>
       <c r="F169">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-11 00:51:31</v>
+        <v>2023-10-12 02:20:18</v>
       </c>
       <c r="B170">
-        <v>48.89</v>
+        <v>49.1</v>
       </c>
       <c r="C170">
-        <v>83.42</v>
+        <v>81.93</v>
       </c>
       <c r="D170">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E170">
-        <v>44.7</v>
+        <v>43.5</v>
       </c>
       <c r="F170">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-11 04:29:48</v>
+        <v>2023-10-12 06:01:25</v>
       </c>
       <c r="B171">
-        <v>48.99</v>
+        <v>49.1</v>
       </c>
       <c r="C171">
-        <v>84.26</v>
+        <v>78.12</v>
       </c>
       <c r="D171">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E171">
-        <v>44.9</v>
+        <v>43.9</v>
       </c>
       <c r="F171">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-11 08:09:51</v>
+        <v>2023-10-12 09:40:21</v>
       </c>
       <c r="B172">
-        <v>49.99</v>
+        <v>49.2</v>
       </c>
       <c r="C172">
-        <v>73.98</v>
+        <v>73.01</v>
       </c>
       <c r="D172">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E172">
-        <v>45.1</v>
+        <v>44.5</v>
       </c>
       <c r="F172">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-11 11:49:12</v>
+        <v>2023-10-12 13:22:02</v>
       </c>
       <c r="B173">
-        <v>49.99</v>
+        <v>49.2</v>
       </c>
       <c r="C173">
-        <v>84.41</v>
+        <v>73.01</v>
       </c>
       <c r="D173">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E173">
-        <v>45.7</v>
+        <v>43.7</v>
       </c>
       <c r="F173">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-11 15:26:56</v>
+        <v>2023-10-12 17:00:49</v>
       </c>
       <c r="B174">
-        <v>49.8</v>
+        <v>44.8</v>
       </c>
       <c r="C174">
-        <v>82.29</v>
+        <v>70.16</v>
       </c>
       <c r="D174">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E174">
-        <v>45</v>
+        <v>44.1</v>
       </c>
       <c r="F174">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-11 19:03:19</v>
+        <v>2023-10-12 20:40:38</v>
       </c>
       <c r="B175">
-        <v>46</v>
+        <v>49.2</v>
       </c>
       <c r="C175">
-        <v>82.29</v>
+        <v>69.65</v>
       </c>
       <c r="D175">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E175">
-        <v>45.6</v>
+        <v>44.1</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-11 22:42:26</v>
+        <v>2023-10-13 00:19:35</v>
       </c>
       <c r="B176">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C176">
-        <v>74.84</v>
+        <v>69.5</v>
       </c>
       <c r="D176">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E176">
-        <v>41.6</v>
+        <v>45.1</v>
       </c>
       <c r="F176">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-12 02:20:18</v>
+        <v>2023-10-13 03:58:17</v>
       </c>
       <c r="B177">
-        <v>49.1</v>
+        <v>48.99</v>
       </c>
       <c r="C177">
-        <v>81.93</v>
+        <v>70.18</v>
       </c>
       <c r="D177">
         <v>124</v>
       </c>
       <c r="E177">
-        <v>43.5</v>
+        <v>45.1</v>
       </c>
       <c r="F177">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-12 06:01:25</v>
+        <v>2023-10-13 07:33:57</v>
       </c>
       <c r="B178">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="C178">
-        <v>78.12</v>
+        <v>74.19</v>
       </c>
       <c r="D178">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E178">
-        <v>43.9</v>
+        <v>45.1</v>
       </c>
       <c r="F178">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-12 09:40:21</v>
+        <v>2023-10-13 11:14:05</v>
       </c>
       <c r="B179">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C179">
-        <v>73.01</v>
+        <v>75</v>
       </c>
       <c r="D179">
         <v>124</v>
       </c>
       <c r="E179">
-        <v>44.5</v>
+        <v>45.1</v>
       </c>
       <c r="F179">
         <v>21</v>
@@ -3862,379 +3862,379 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-12 13:22:02</v>
+        <v>2023-10-13 14:53:26</v>
       </c>
       <c r="B180">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C180">
-        <v>73.01</v>
+        <v>77.26</v>
       </c>
       <c r="D180">
         <v>123</v>
       </c>
       <c r="E180">
-        <v>43.7</v>
+        <v>45.1</v>
       </c>
       <c r="F180">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-12 17:00:49</v>
+        <v>2023-10-13 18:32:09</v>
       </c>
       <c r="B181">
-        <v>44.8</v>
+        <v>47</v>
       </c>
       <c r="C181">
-        <v>70.16</v>
+        <v>77.26</v>
       </c>
       <c r="D181">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E181">
-        <v>44.1</v>
+        <v>45</v>
       </c>
       <c r="F181">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-12 20:40:38</v>
+        <v>2023-10-13 22:12:02</v>
       </c>
       <c r="B182">
-        <v>49.2</v>
+        <v>49.99</v>
       </c>
       <c r="C182">
-        <v>69.65</v>
+        <v>77.26</v>
       </c>
       <c r="D182">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E182">
-        <v>44.1</v>
+        <v>45.1</v>
       </c>
       <c r="F182">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-13 00:19:35</v>
+        <v>2023-10-14 01:51:38</v>
       </c>
       <c r="B183">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C183">
-        <v>69.5</v>
+        <v>80.98</v>
       </c>
       <c r="D183">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E183">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="F183">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-13 03:58:17</v>
+        <v>2023-10-14 05:28:53</v>
       </c>
       <c r="B184">
-        <v>48.99</v>
+        <v>48.9</v>
       </c>
       <c r="C184">
-        <v>70.18</v>
+        <v>80.87</v>
       </c>
       <c r="D184">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E184">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="F184">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-13 07:33:57</v>
+        <v>2023-10-14 09:06:19</v>
       </c>
       <c r="B185">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C185">
-        <v>74.19</v>
+        <v>80.8</v>
       </c>
       <c r="D185">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E185">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="F185">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-13 11:14:05</v>
+        <v>2023-10-14 12:43:41</v>
       </c>
       <c r="B186">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C186">
-        <v>75</v>
+        <v>75.61</v>
       </c>
       <c r="D186">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E186">
-        <v>45.1</v>
+        <v>40.2</v>
       </c>
       <c r="F186">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-13 14:53:26</v>
+        <v>2023-10-14 16:23:47</v>
       </c>
       <c r="B187">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C187">
-        <v>77.26</v>
+        <v>74.73</v>
       </c>
       <c r="D187">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E187">
-        <v>45.1</v>
+        <v>43.4</v>
       </c>
       <c r="F187">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-13 18:32:09</v>
+        <v>2023-10-14 20:04:39</v>
       </c>
       <c r="B188">
         <v>47</v>
       </c>
       <c r="C188">
-        <v>77.26</v>
+        <v>79.26</v>
       </c>
       <c r="D188">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E188">
-        <v>45</v>
+        <v>43.4</v>
       </c>
       <c r="F188">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-13 22:12:02</v>
+        <v>2023-10-14 23:45:38</v>
       </c>
       <c r="B189">
-        <v>49.99</v>
+        <v>47</v>
       </c>
       <c r="C189">
-        <v>77.26</v>
+        <v>80.36</v>
       </c>
       <c r="D189">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E189">
-        <v>45.1</v>
+        <v>43.4</v>
       </c>
       <c r="F189">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-14 01:51:38</v>
+        <v>2023-10-15 03:26:26</v>
       </c>
       <c r="B190">
-        <v>48.9</v>
+        <v>47.99</v>
       </c>
       <c r="C190">
-        <v>80.98</v>
+        <v>71.16</v>
       </c>
       <c r="D190">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E190">
-        <v>45</v>
+        <v>43.4</v>
       </c>
       <c r="F190">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-14 05:28:53</v>
+        <v>2023-10-15 03:32:33</v>
       </c>
       <c r="B191">
-        <v>48.9</v>
+        <v>47.99</v>
       </c>
       <c r="C191">
-        <v>80.87</v>
+        <v>71.16</v>
       </c>
       <c r="D191">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E191">
-        <v>45</v>
+        <v>43.4</v>
       </c>
       <c r="F191">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-14 09:06:19</v>
+        <v>2023-10-15 07:09:28</v>
       </c>
       <c r="B192">
-        <v>48.7</v>
+        <v>47.99</v>
       </c>
       <c r="C192">
-        <v>80.8</v>
+        <v>66.98</v>
       </c>
       <c r="D192">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E192">
-        <v>45</v>
+        <v>43.6</v>
       </c>
       <c r="F192">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-14 12:43:41</v>
+        <v>2023-10-15 10:44:53</v>
       </c>
       <c r="B193">
-        <v>48.5</v>
+        <v>47.89</v>
       </c>
       <c r="C193">
-        <v>75.61</v>
+        <v>80.34</v>
       </c>
       <c r="D193">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E193">
-        <v>40.2</v>
+        <v>44.1</v>
       </c>
       <c r="F193">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-14 16:23:47</v>
+        <v>2023-10-15 14:23:01</v>
       </c>
       <c r="B194">
-        <v>47</v>
+        <v>47.78</v>
       </c>
       <c r="C194">
-        <v>74.73</v>
+        <v>80.34</v>
       </c>
       <c r="D194">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E194">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
       <c r="F194">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-14 20:04:39</v>
+        <v>2023-10-15 18:02:23</v>
       </c>
       <c r="B195">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C195">
-        <v>79.26</v>
+        <v>80.2</v>
       </c>
       <c r="D195">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E195">
-        <v>43.4</v>
+        <v>44</v>
       </c>
       <c r="F195">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-14 23:45:38</v>
+        <v>2023-10-15 21:44:04</v>
       </c>
       <c r="B196">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C196">
-        <v>80.36</v>
+        <v>80.2</v>
       </c>
       <c r="D196">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E196">
-        <v>43.4</v>
+        <v>44.7</v>
       </c>
       <c r="F196">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-15 03:26:26</v>
+        <v>2023-10-16 01:23:26</v>
       </c>
       <c r="B197">
-        <v>47.99</v>
+        <v>47.6</v>
       </c>
       <c r="C197">
-        <v>71.16</v>
+        <v>80.06</v>
       </c>
       <c r="D197">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E197">
-        <v>43.4</v>
+        <v>44.8</v>
       </c>
       <c r="F197">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-15 03:32:33</v>
+        <v>2023-10-16 05:03:29</v>
       </c>
       <c r="B198">
-        <v>47.99</v>
+        <v>47.5</v>
       </c>
       <c r="C198">
-        <v>71.16</v>
+        <v>78.09</v>
       </c>
       <c r="D198">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E198">
-        <v>43.4</v>
+        <v>44.9</v>
       </c>
       <c r="F198">
         <v>17</v>
@@ -4242,202 +4242,222 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-15 07:09:28</v>
+        <v>2023-10-16 08:43:24</v>
       </c>
       <c r="B199">
-        <v>47.99</v>
+        <v>47.5</v>
       </c>
       <c r="C199">
-        <v>66.98</v>
+        <v>78.09</v>
       </c>
       <c r="D199">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E199">
-        <v>43.6</v>
+        <v>44.9</v>
       </c>
       <c r="F199">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-15 10:44:53</v>
+        <v>2023-10-16 12:23:30</v>
       </c>
       <c r="B200">
-        <v>47.89</v>
+        <v>47.5</v>
       </c>
       <c r="C200">
-        <v>80.34</v>
+        <v>77.09</v>
       </c>
       <c r="D200">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E200">
-        <v>44.1</v>
+        <v>44.9</v>
       </c>
       <c r="F200">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-15 14:23:01</v>
+        <v>2023-10-16 16:03:32</v>
       </c>
       <c r="B201">
-        <v>47.78</v>
+        <v>47.5</v>
       </c>
       <c r="C201">
-        <v>80.34</v>
+        <v>76.09</v>
       </c>
       <c r="D201">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E201">
-        <v>43.8</v>
+        <v>45.1</v>
       </c>
       <c r="F201">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-15 18:02:23</v>
+        <v>2023-10-16 19:41:22</v>
       </c>
       <c r="B202">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="C202">
-        <v>80.2</v>
+        <v>77.09</v>
       </c>
       <c r="D202">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E202">
-        <v>44</v>
+        <v>45.3</v>
       </c>
       <c r="F202">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-15 21:44:04</v>
+        <v>2023-10-16 23:19:19</v>
       </c>
       <c r="B203">
-        <v>48</v>
+        <v>47.1</v>
       </c>
       <c r="C203">
-        <v>80.2</v>
+        <v>76.02</v>
       </c>
       <c r="D203">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E203">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="F203">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-16 01:23:26</v>
+        <v>2023-10-17 02:57:24</v>
       </c>
       <c r="B204">
-        <v>47.6</v>
+        <v>47</v>
       </c>
       <c r="C204">
-        <v>80.06</v>
+        <v>77.09</v>
       </c>
       <c r="D204">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E204">
-        <v>44.8</v>
+        <v>45.4</v>
       </c>
       <c r="F204">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-16 05:03:29</v>
+        <v>2023-10-17 03:03:50</v>
       </c>
       <c r="B205">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="C205">
-        <v>78.09</v>
+        <v>77.09</v>
       </c>
       <c r="D205">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E205">
-        <v>44.9</v>
+        <v>45.4</v>
       </c>
       <c r="F205">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-16 08:43:24</v>
+        <v>2023-10-17 06:42:11</v>
       </c>
       <c r="B206">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="C206">
-        <v>78.09</v>
+        <v>80.34</v>
       </c>
       <c r="D206">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E206">
-        <v>44.9</v>
+        <v>45.5</v>
       </c>
       <c r="F206">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-16 12:23:30</v>
+        <v>2023-10-17 10:22:13</v>
       </c>
       <c r="B207">
-        <v>47.5</v>
+        <v>46.9</v>
       </c>
       <c r="C207">
-        <v>77.09</v>
+        <v>78.01</v>
       </c>
       <c r="D207">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E207">
-        <v>44.9</v>
+        <v>45.5</v>
       </c>
       <c r="F207">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-16 16:03:32</v>
+        <v>2023-10-17 14:04:08</v>
       </c>
       <c r="B208">
-        <v>47.5</v>
+        <v>46.7</v>
       </c>
       <c r="C208">
-        <v>76.09</v>
+        <v>77.34</v>
       </c>
       <c r="D208">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E208">
-        <v>45.1</v>
+        <v>45.7</v>
       </c>
       <c r="F208">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>2023-10-17 17:43:18</v>
+      </c>
+      <c r="B209">
+        <v>46.7</v>
+      </c>
+      <c r="C209">
+        <v>81.01</v>
+      </c>
+      <c r="D209">
+        <v>131</v>
+      </c>
+      <c r="E209">
+        <v>45.7</v>
+      </c>
+      <c r="F209">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4469,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F208"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F209"/>
   </ignoredErrors>
 </worksheet>
 </file>